--- a/NHANES/nhanes_cistola_DMstatus_table.xlsx
+++ b/NHANES/nhanes_cistola_DMstatus_table.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewc\GitHub\PreDM\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewc\GitHub\PreDM\nhanes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80D337-6C47-48E1-B2F5-70CC19F6021A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340D821-2820-4C74-8F5A-95D9E2735C79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="16950" windowHeight="13185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="2295" windowWidth="17310" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NHANES_popcount_DMstatus_table" sheetId="1" r:id="rId1"/>
-    <sheet name="No Totals" sheetId="2" r:id="rId2"/>
+    <sheet name="Cistola" sheetId="1" r:id="rId1"/>
+    <sheet name="Cistola No totals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4862,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="A2:H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
